--- a/data/simulator_config.xlsx
+++ b/data/simulator_config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel\git\lab-events-simulator\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AngelFernandez\git\lab-events-simulator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{494B04FC-DAC6-43F2-A934-C5F18B958691}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A77F620-B61D-46C3-A306-45171D815CB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{A49770C9-701F-43A8-9FA9-C3FBCD6AD4BA}"/>
   </bookViews>
@@ -705,7 +705,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +831,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>8</v>

--- a/data/simulator_config.xlsx
+++ b/data/simulator_config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AngelFernandez\git\lab-events-simulator\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel\git\lab-events-simulator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A77F620-B61D-46C3-A306-45171D815CB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9990FD71-13CF-440C-A071-2F0BC31CC203}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{A49770C9-701F-43A8-9FA9-C3FBCD6AD4BA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>destiny</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>stopper_id</t>
+  </si>
+  <si>
+    <t>str</t>
   </si>
 </sst>
 </file>
@@ -702,10 +705,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B502A44-B3A8-490D-AC71-04B56DC6825D}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,31 +750,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -788,10 +779,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -808,10 +799,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -828,10 +819,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -843,6 +834,26 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
         <v>13</v>
       </c>
     </row>
